--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -223,14 +223,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,14 +260,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,32 +329,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -318,53 +350,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -415,31 +415,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,151 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,11 +624,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,58 +701,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,10 +729,10 @@
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,16 +741,16 @@
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,115 +759,115 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1402,7 +1402,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="23">
-        <v>60000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:6">

--- a/Resource/excel/option.xlsx
+++ b/Resource/excel/option.xlsx
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F60" authorId="1">
+    <comment ref="F59" authorId="1">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Description</t>
   </si>
@@ -157,6 +157,18 @@
     <t>route@kframe,./</t>
   </si>
   <si>
+    <t>玩家掉线保存时间( 单位: 毫秒 )</t>
+  </si>
+  <si>
+    <t>disconnettime</t>
+  </si>
+  <si>
+    <t>玩家定时保存数据库时间( 单位: 毫秒 )</t>
+  </si>
+  <si>
+    <t>playersavetime</t>
+  </si>
+  <si>
     <t>英雄名字连接符号</t>
   </si>
   <si>
@@ -164,12 +176,6 @@
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>玩家掉线保存时间( 单位: 毫秒 )</t>
-  </si>
-  <si>
-    <t>disconnettime</t>
   </si>
 </sst>
 </file>
@@ -177,10 +183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -229,6 +235,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -253,118 +349,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -415,61 +421,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,121 +595,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,46 +630,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,6 +654,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -698,11 +687,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,10 +735,10 @@
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,10 +747,10 @@
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,115 +765,115 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1397,12 +1403,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1546,13 +1552,13 @@
         <v>19</v>
       </c>
       <c r="E6" s="21"/>
-      <c r="F6" s="23" t="s">
-        <v>20</v>
+      <c r="F6" s="23">
+        <v>1000</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:6">
       <c r="A7" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="21">
         <v>0</v>
@@ -1560,35 +1566,47 @@
       <c r="C7" s="21">
         <v>0</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>22</v>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="23">
-        <v>1000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:6">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="21">
+        <v>0</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="E8" s="21"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" s="5" customFormat="1" spans="1:6">
-      <c r="A9" s="21"/>
+      <c r="F8" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="15" spans="1:6">
+      <c r="A9" s="24"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="15" spans="1:6">
-      <c r="A10" s="24"/>
+      <c r="F9" s="25"/>
+    </row>
+    <row r="10" s="5" customFormat="1" spans="1:6">
+      <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="25"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:6">
       <c r="A11" s="21"/>
@@ -1604,23 +1622,23 @@
       <c r="C12" s="21"/>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" s="5" customFormat="1" spans="1:6">
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="15" spans="1:6">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="15" spans="1:6">
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" s="5" customFormat="1" spans="1:6">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="25"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:6">
       <c r="A15" s="21"/>
@@ -1671,7 +1689,7 @@
       <c r="F20" s="23"/>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:6">
-      <c r="A21" s="21"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
@@ -1679,10 +1697,9 @@
       <c r="F21" s="23"/>
     </row>
     <row r="22" s="5" customFormat="1" spans="1:6">
-      <c r="A22" s="27"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
       <c r="E22" s="21"/>
       <c r="F22" s="23"/>
     </row>
@@ -1697,6 +1714,7 @@
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="21"/>
       <c r="F24" s="23"/>
     </row>
@@ -1748,7 +1766,7 @@
       <c r="E30" s="21"/>
       <c r="F30" s="23"/>
     </row>
-    <row r="31" s="5" customFormat="1" spans="1:6">
+    <row r="31" spans="1:6">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -1772,7 +1790,7 @@
       <c r="E33" s="21"/>
       <c r="F33" s="23"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" ht="12.75" customHeight="1" spans="1:6">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -1788,7 +1806,7 @@
       <c r="E35" s="21"/>
       <c r="F35" s="23"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1" spans="1:6">
+    <row r="36" spans="1:6">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -1852,13 +1870,13 @@
       <c r="E43" s="21"/>
       <c r="F43" s="23"/>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="23"/>
+    <row r="44" s="4" customFormat="1" spans="1:6">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="19"/>
     </row>
     <row r="45" s="4" customFormat="1" spans="1:6">
       <c r="A45" s="17"/>
@@ -1909,7 +1927,7 @@
       <c r="F50" s="19"/>
     </row>
     <row r="51" s="4" customFormat="1" spans="1:6">
-      <c r="A51" s="17"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="18"/>
@@ -1948,21 +1966,21 @@
       <c r="E55" s="17"/>
       <c r="F55" s="19"/>
     </row>
-    <row r="56" s="4" customFormat="1" spans="1:6">
-      <c r="A56" s="28"/>
+    <row r="56" s="4" customFormat="1" ht="15" spans="1:6">
+      <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="18"/>
       <c r="E56" s="17"/>
-      <c r="F56" s="19"/>
-    </row>
-    <row r="57" s="4" customFormat="1" ht="15" spans="1:6">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="29"/>
+      <c r="F56" s="29"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="23"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="21"/>
@@ -1973,12 +1991,10 @@
       <c r="F58" s="23"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="23"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="F59" s="32"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="31"/>
@@ -2040,10 +2056,7 @@
       <c r="C69" s="31"/>
       <c r="F69" s="32"/>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
+    <row r="70" spans="6:6">
       <c r="F70" s="32"/>
     </row>
     <row r="71" spans="6:6">
@@ -2051,9 +2064,6 @@
     </row>
     <row r="72" spans="6:6">
       <c r="F72" s="32"/>
-    </row>
-    <row r="73" spans="6:6">
-      <c r="F73" s="32"/>
     </row>
   </sheetData>
   <hyperlinks>
